--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/151.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/151.xlsx
@@ -479,13 +479,13 @@
         <v>-2.324324007556138</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.39573300734715</v>
+        <v>-5.440095855657536</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.518767582469847</v>
+        <v>-2.516645753489607</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.361092222004974</v>
+        <v>-2.572316874683167</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-1.94357202701965</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.16808853416864</v>
+        <v>-6.222737852927016</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.338876574801712</v>
+        <v>-2.345887410648868</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.690736045447931</v>
+        <v>-1.953701057798685</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-1.526179249740988</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.695059917332801</v>
+        <v>-6.749919463386454</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.785228234730446</v>
+        <v>-2.77769427514853</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.75715320373497</v>
+        <v>-2.003124028216328</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-1.100289563950359</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.42835227928764</v>
+        <v>-7.487435927274308</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.15937668768293</v>
+        <v>-2.185640432571997</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.631537596737674</v>
+        <v>-0.9212308096298523</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.6688918861202726</v>
       </c>
       <c r="E6" t="n">
-        <v>-8.807795344801427</v>
+        <v>-8.826398015930039</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.946995693942928</v>
+        <v>-2.929649497579114</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2563842744039513</v>
+        <v>-0.07067561797205799</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.245061665406626</v>
       </c>
       <c r="E7" t="n">
-        <v>-9.898307882494274</v>
+        <v>-9.899627914348342</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.906123596535519</v>
+        <v>-2.888977849453248</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6181512265281898</v>
+        <v>0.2854787542689622</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.1625186502400243</v>
       </c>
       <c r="E8" t="n">
-        <v>-10.49604764005703</v>
+        <v>-10.4922097696665</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.097308210066228</v>
+        <v>-3.08218651182686</v>
       </c>
       <c r="G8" t="n">
-        <v>1.171679694993433</v>
+        <v>0.8386943262947231</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.5431391936018435</v>
       </c>
       <c r="E9" t="n">
-        <v>-11.27382018648706</v>
+        <v>-11.26154389024424</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.930441516691554</v>
+        <v>-2.905928036260842</v>
       </c>
       <c r="G9" t="n">
-        <v>1.654219783751072</v>
+        <v>1.332650246086608</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.890475352632515</v>
       </c>
       <c r="E10" t="n">
-        <v>-11.63890677427393</v>
+        <v>-11.63652582792975</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.963153861638082</v>
+        <v>-2.948662845284546</v>
       </c>
       <c r="G10" t="n">
-        <v>1.310933277583772</v>
+        <v>1.011383826847893</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>1.202866644670561</v>
       </c>
       <c r="E11" t="n">
-        <v>-12.41290500740271</v>
+        <v>-12.40781555125425</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.104128374645574</v>
+        <v>-3.083521210701528</v>
       </c>
       <c r="G11" t="n">
-        <v>1.866314679651576</v>
+        <v>1.568539938408387</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>1.482124805822044</v>
       </c>
       <c r="E12" t="n">
-        <v>-13.39617229046291</v>
+        <v>-13.37536467723732</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.947411259526616</v>
+        <v>-2.921665749365442</v>
       </c>
       <c r="G12" t="n">
-        <v>2.223261071005036</v>
+        <v>1.946205940863833</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>1.733259988409931</v>
       </c>
       <c r="E13" t="n">
-        <v>-14.26607817129995</v>
+        <v>-14.23636767656971</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.241177015138934</v>
+        <v>-3.202074738217348</v>
       </c>
       <c r="G13" t="n">
-        <v>2.628173508729799</v>
+        <v>2.38158666938321</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>1.961895167401654</v>
       </c>
       <c r="E14" t="n">
-        <v>-14.69278091263056</v>
+        <v>-14.68846391956707</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.23406839915444</v>
+        <v>-3.199097333035397</v>
       </c>
       <c r="G14" t="n">
-        <v>3.473018340367037</v>
+        <v>3.194926740770048</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>2.175585616768073</v>
       </c>
       <c r="E15" t="n">
-        <v>-15.56866115985897</v>
+        <v>-15.55748977916807</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.946384568084564</v>
+        <v>-2.916605627258185</v>
       </c>
       <c r="G15" t="n">
-        <v>4.008785046884778</v>
+        <v>3.744773787064504</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>2.383732702532589</v>
       </c>
       <c r="E16" t="n">
-        <v>-15.58777717670861</v>
+        <v>-15.61705254982769</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.767388248673074</v>
+        <v>-2.730701141143744</v>
       </c>
       <c r="G16" t="n">
-        <v>4.280012480840619</v>
+        <v>4.012852700598052</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>2.596849262592889</v>
       </c>
       <c r="E17" t="n">
-        <v>-16.88971481636119</v>
+        <v>-16.90706101272501</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.51435769827589</v>
+        <v>-2.481870247645241</v>
       </c>
       <c r="G17" t="n">
-        <v>4.780280108497691</v>
+        <v>4.511027833316084</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.822573305903251</v>
       </c>
       <c r="E18" t="n">
-        <v>-17.81563893787935</v>
+        <v>-17.85868664334253</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.464524051281426</v>
+        <v>-2.423886626203629</v>
       </c>
       <c r="G18" t="n">
-        <v>4.820726862307678</v>
+        <v>4.547333598309795</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>3.064873134973816</v>
       </c>
       <c r="E19" t="n">
-        <v>-18.47976651968794</v>
+        <v>-18.52424181515626</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.691924074116591</v>
+        <v>-1.651413763217334</v>
       </c>
       <c r="G19" t="n">
-        <v>5.023268638790231</v>
+        <v>4.751972758738254</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>3.324056772967566</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.30560289262661</v>
+        <v>-19.36336650875921</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.453814772677232</v>
+        <v>-1.412126211123048</v>
       </c>
       <c r="G20" t="n">
-        <v>4.687794765596261</v>
+        <v>4.412675682174356</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>3.593802770484976</v>
       </c>
       <c r="E21" t="n">
-        <v>-20.29175957874516</v>
+        <v>-20.31855133637585</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.7573024093821941</v>
+        <v>-0.7233971467601389</v>
       </c>
       <c r="G21" t="n">
-        <v>4.147456837657954</v>
+        <v>3.890260853410159</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>3.869173976362958</v>
       </c>
       <c r="E22" t="n">
-        <v>-21.26008605682006</v>
+        <v>-21.27257746936503</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.2105843274825631</v>
+        <v>-0.176556839688835</v>
       </c>
       <c r="G22" t="n">
-        <v>3.447644394727748</v>
+        <v>3.204646086421475</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>4.141456039902117</v>
       </c>
       <c r="E23" t="n">
-        <v>-20.85513939604724</v>
+        <v>-20.91219410618413</v>
       </c>
       <c r="F23" t="n">
-        <v>0.333777253107215</v>
+        <v>0.3447677405440397</v>
       </c>
       <c r="G23" t="n">
-        <v>3.120271605912257</v>
+        <v>2.905829986715633</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>4.4001646063216</v>
       </c>
       <c r="E24" t="n">
-        <v>-21.39688046895635</v>
+        <v>-21.44758924817999</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9435097445145126</v>
+        <v>0.9319472432742588</v>
       </c>
       <c r="G24" t="n">
-        <v>2.214949759331281</v>
+        <v>2.032697361346425</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>4.636309255922242</v>
       </c>
       <c r="E25" t="n">
-        <v>-21.93385964917708</v>
+        <v>-21.97598822134929</v>
       </c>
       <c r="F25" t="n">
-        <v>1.543161103762232</v>
+        <v>1.513978621773616</v>
       </c>
       <c r="G25" t="n">
-        <v>1.37850913049827</v>
+        <v>1.212898911888393</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>4.84085479190535</v>
       </c>
       <c r="E26" t="n">
-        <v>-22.33031899402895</v>
+        <v>-22.34750874217302</v>
       </c>
       <c r="F26" t="n">
-        <v>1.622196788772779</v>
+        <v>1.612805006581435</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6517924827794316</v>
+        <v>0.5072245497247565</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>5.00662261533901</v>
       </c>
       <c r="E27" t="n">
-        <v>-23.00108584716281</v>
+        <v>-22.99618706228216</v>
       </c>
       <c r="F27" t="n">
-        <v>1.850806749869722</v>
+        <v>1.833494776553976</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1804973792235685</v>
+        <v>-0.2941765668930748</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>5.133108013461023</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.75329631212696</v>
+        <v>-22.74744905991413</v>
       </c>
       <c r="F28" t="n">
-        <v>1.981504570442959</v>
+        <v>1.950713605195129</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.039715891049536</v>
+        <v>-1.125669520776768</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>5.221678243183882</v>
       </c>
       <c r="E29" t="n">
-        <v>-22.6884485250442</v>
+        <v>-22.68301194940819</v>
       </c>
       <c r="F29" t="n">
-        <v>1.721492518239822</v>
+        <v>1.69783461401082</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.71724912968721</v>
+        <v>-1.775477201472167</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>5.276224405712599</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.47316599666647</v>
+        <v>-22.46493779810945</v>
       </c>
       <c r="F30" t="n">
-        <v>1.515743553252573</v>
+        <v>1.512203912280926</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.236258674230818</v>
+        <v>-3.24127968428314</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>5.304632358388078</v>
       </c>
       <c r="E31" t="n">
-        <v>-22.47235442152656</v>
+        <v>-22.44745959856023</v>
       </c>
       <c r="F31" t="n">
-        <v>1.660741718911536</v>
+        <v>1.632517482268836</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.47621602026587</v>
+        <v>-3.485646914512149</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>5.311942982878759</v>
       </c>
       <c r="E32" t="n">
-        <v>-22.28683127794774</v>
+        <v>-22.26262091594278</v>
       </c>
       <c r="F32" t="n">
-        <v>1.671463310970681</v>
+        <v>1.653388652583696</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.507972473432133</v>
+        <v>-4.492708993993625</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>5.305116581757853</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.93643126678908</v>
+        <v>-21.9112919934794</v>
       </c>
       <c r="F33" t="n">
-        <v>1.163769281882765</v>
+        <v>1.171024568073267</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.689511076414419</v>
+        <v>-4.679175715897761</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>5.289939748680291</v>
       </c>
       <c r="E34" t="n">
-        <v>-21.62941141356055</v>
+        <v>-21.60543083487834</v>
       </c>
       <c r="F34" t="n">
-        <v>1.348466183301078</v>
+        <v>1.338345939086564</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.675298733452298</v>
+        <v>-4.691955579847876</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>5.268402731295108</v>
       </c>
       <c r="E35" t="n">
-        <v>-21.09957018336551</v>
+        <v>-21.08460982235275</v>
       </c>
       <c r="F35" t="n">
-        <v>0.777420403231678</v>
+        <v>0.7943070329500023</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.751904582049987</v>
+        <v>-4.768634763548571</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>5.242365072937817</v>
       </c>
       <c r="E36" t="n">
-        <v>-20.62729212002153</v>
+        <v>-20.59945411492132</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5355270104773272</v>
+        <v>0.5587253480608386</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.16331450990088</v>
+        <v>-5.182958539492144</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>5.211644003109362</v>
       </c>
       <c r="E37" t="n">
-        <v>-20.29766061003352</v>
+        <v>-20.26888880462173</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6455345539897804</v>
+        <v>0.6534058550455135</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.365189027883882</v>
+        <v>-4.415780470942718</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>5.171753846510373</v>
       </c>
       <c r="E38" t="n">
-        <v>-19.9283841433617</v>
+        <v>-19.91683142013519</v>
       </c>
       <c r="F38" t="n">
-        <v>0.03991371735755814</v>
+        <v>0.06381607192990532</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.044162169981646</v>
+        <v>-4.086095181879175</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>5.121427813440168</v>
       </c>
       <c r="E39" t="n">
-        <v>-19.74349657067558</v>
+        <v>-19.7078361545883</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2275687373382256</v>
+        <v>-0.183337892213246</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.12700639134152</v>
+        <v>-4.202463323325485</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>5.058171229547463</v>
       </c>
       <c r="E40" t="n">
-        <v>-18.82507707469814</v>
+        <v>-18.8117545309858</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.8285694624812132</v>
+        <v>-0.7619860779606986</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.363265294619534</v>
+        <v>-3.456694215846279</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>4.97860177917027</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.2177744197037</v>
+        <v>-18.19760726637768</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.371444784983449</v>
+        <v>-1.283843559942067</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.092810323748666</v>
+        <v>-3.211192736024145</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>4.885496060488723</v>
       </c>
       <c r="E42" t="n">
-        <v>-17.5063016953959</v>
+        <v>-17.48247756493343</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.807309525182651</v>
+        <v>-1.701486971548277</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.155548595306136</v>
+        <v>-2.304873532042319</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>4.779019860954</v>
       </c>
       <c r="E43" t="n">
-        <v>-16.94619751269466</v>
+        <v>-16.94064360089384</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.805720597950903</v>
+        <v>-1.7012914112736</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.601565449202269</v>
+        <v>-1.750284149086955</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>4.660617323212334</v>
       </c>
       <c r="E44" t="n">
-        <v>-16.40702805739754</v>
+        <v>-16.39576378557617</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.901799360899516</v>
+        <v>-1.79765862562736</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.456850845941586</v>
+        <v>-1.611363018963566</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>4.533347429186479</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.5210836985958</v>
+        <v>-16.47331810150605</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.236143873507228</v>
+        <v>-2.107259874481616</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.417953907308411</v>
+        <v>-1.565929478149326</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>4.398660176642317</v>
       </c>
       <c r="E46" t="n">
-        <v>-15.36123526551637</v>
+        <v>-15.34078943879893</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.309733204868032</v>
+        <v>-2.185430205276719</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.892620341444666</v>
+        <v>-1.04912234026148</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>4.258238657432122</v>
       </c>
       <c r="E47" t="n">
-        <v>-14.96667285532886</v>
+        <v>-14.93537832237374</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.740078256314487</v>
+        <v>-2.5985561745379</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.7491817689762483</v>
+        <v>-0.9178965069466163</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>4.114892024275601</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.17158344657622</v>
+        <v>-14.14648817432835</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.740127146383156</v>
+        <v>-2.590499091221224</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.3479360864016716</v>
+        <v>-0.5291031248620719</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>3.967338059411185</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.28749202137704</v>
+        <v>-14.24732882996533</v>
       </c>
       <c r="F49" t="n">
-        <v>-3.166697884528352</v>
+        <v>-3.011985262224828</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.3150037361461325</v>
+        <v>-0.485869637137943</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>3.815323043699691</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.6178154167745</v>
+        <v>-13.57836113135849</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.612448196612455</v>
+        <v>-3.445591281251515</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.144308950394664</v>
+        <v>-0.3407150232592382</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>3.657626673868515</v>
       </c>
       <c r="E51" t="n">
-        <v>-12.94382181910847</v>
+        <v>-12.92960458713948</v>
       </c>
       <c r="F51" t="n">
-        <v>-3.516017425169425</v>
+        <v>-3.360341668513119</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.07716333008445411</v>
+        <v>-0.2980633273522722</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>3.491603943184016</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.52333300550572</v>
+        <v>-12.51764709051949</v>
       </c>
       <c r="F52" t="n">
-        <v>-3.647468152800167</v>
+        <v>-3.491279050422835</v>
       </c>
       <c r="G52" t="n">
-        <v>0.02925568238768356</v>
+        <v>-0.2025076881384195</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>3.318161467819491</v>
       </c>
       <c r="E53" t="n">
-        <v>-11.88008637202572</v>
+        <v>-11.88833901561707</v>
       </c>
       <c r="F53" t="n">
-        <v>-3.976923658540965</v>
+        <v>-3.790950726330387</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.3431546376858288</v>
+        <v>-0.5602803216523885</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>3.137459821742698</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.04106434756697</v>
+        <v>-11.0908735495271</v>
       </c>
       <c r="F54" t="n">
-        <v>-4.102962255570032</v>
+        <v>-3.927554467198858</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1497846380856088</v>
+        <v>-0.3771381244177546</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>2.94937547026843</v>
       </c>
       <c r="E55" t="n">
-        <v>-10.44229789856217</v>
+        <v>-10.47992858441681</v>
       </c>
       <c r="F55" t="n">
-        <v>-4.304888017187353</v>
+        <v>-4.120181337755307</v>
       </c>
       <c r="G55" t="n">
-        <v>0.202194522291066</v>
+        <v>-0.05729440617731177</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>2.75567237422576</v>
       </c>
       <c r="E56" t="n">
-        <v>-9.846943976350465</v>
+        <v>-9.913644697035787</v>
       </c>
       <c r="F56" t="n">
-        <v>-4.39568176371283</v>
+        <v>-4.216895671596618</v>
       </c>
       <c r="G56" t="n">
-        <v>0.6971331324632007</v>
+        <v>0.4202931186241419</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>2.558266827498807</v>
       </c>
       <c r="E57" t="n">
-        <v>-9.345331871804992</v>
+        <v>-9.409568533029388</v>
       </c>
       <c r="F57" t="n">
-        <v>-4.104829856193193</v>
+        <v>-3.938701402855424</v>
       </c>
       <c r="G57" t="n">
-        <v>0.4946402460493174</v>
+        <v>0.2272800165252066</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>2.358981880845266</v>
       </c>
       <c r="E58" t="n">
-        <v>-8.922564781002256</v>
+        <v>-9.012527396360358</v>
       </c>
       <c r="F58" t="n">
-        <v>-4.307723641170164</v>
+        <v>-4.132887866602418</v>
       </c>
       <c r="G58" t="n">
-        <v>0.6203023895496323</v>
+        <v>0.339292052853095</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>2.16305218905192</v>
       </c>
       <c r="E59" t="n">
-        <v>-8.162461105389255</v>
+        <v>-8.268498775325773</v>
       </c>
       <c r="F59" t="n">
-        <v>-4.520136322517017</v>
+        <v>-4.340230647828282</v>
       </c>
       <c r="G59" t="n">
-        <v>0.5397120003554063</v>
+        <v>0.2561544910812063</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>1.973226437390281</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.170611079836402</v>
+        <v>-8.288142804917037</v>
       </c>
       <c r="F60" t="n">
-        <v>-4.890581261830031</v>
+        <v>-4.696140569725956</v>
       </c>
       <c r="G60" t="n">
-        <v>0.5408462499485307</v>
+        <v>0.2727086683325803</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>1.792253105340615</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.102546326235212</v>
+        <v>-8.215096153318461</v>
       </c>
       <c r="F61" t="n">
-        <v>-4.876456920991513</v>
+        <v>-4.683380261803308</v>
       </c>
       <c r="G61" t="n">
-        <v>0.5399906737468205</v>
+        <v>0.2637960088141943</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>1.622547276421953</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.650758090670469</v>
+        <v>-7.772626364842058</v>
       </c>
       <c r="F62" t="n">
-        <v>-4.918561048129384</v>
+        <v>-4.716874847848542</v>
       </c>
       <c r="G62" t="n">
-        <v>0.8130563742846211</v>
+        <v>0.5113606495341666</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>1.465098208994647</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.586570319514743</v>
+        <v>-7.678459203578408</v>
       </c>
       <c r="F63" t="n">
-        <v>-5.001366157434323</v>
+        <v>-4.806265449403215</v>
       </c>
       <c r="G63" t="n">
-        <v>0.5219062373461021</v>
+        <v>0.2437070795980408</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>1.321783055295035</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.140917787567977</v>
+        <v>-7.272036062731769</v>
       </c>
       <c r="F64" t="n">
-        <v>-5.469791683367178</v>
+        <v>-5.249869487472743</v>
       </c>
       <c r="G64" t="n">
-        <v>0.6924934649464985</v>
+        <v>0.4015682223238576</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>1.194364546415817</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.231745757141523</v>
+        <v>-7.34019370746343</v>
       </c>
       <c r="F65" t="n">
-        <v>-5.27318516122106</v>
+        <v>-5.059555117164344</v>
       </c>
       <c r="G65" t="n">
-        <v>0.8007116319456609</v>
+        <v>0.5226689224173409</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>1.082861440721476</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.018599724764632</v>
+        <v>-7.144560097683828</v>
       </c>
       <c r="F66" t="n">
-        <v>-5.319440055188942</v>
+        <v>-5.101717912384619</v>
       </c>
       <c r="G66" t="n">
-        <v>0.2578020863953566</v>
+        <v>0.002503036811924962</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.9880464142979299</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.731199456093036</v>
+        <v>-6.876852748672167</v>
       </c>
       <c r="F67" t="n">
-        <v>-5.584199333059854</v>
+        <v>-5.354210672026442</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1858945733967716</v>
+        <v>-0.0672484241583506</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.910411898467236</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.913500744146561</v>
+        <v>-7.050593385701723</v>
       </c>
       <c r="F68" t="n">
-        <v>-5.631256024153911</v>
+        <v>-5.396681474679331</v>
       </c>
       <c r="G68" t="n">
-        <v>0.06118578623550509</v>
+        <v>-0.1759310468098699</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.8498964819867776</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.997264098797415</v>
+        <v>-7.122769794077989</v>
       </c>
       <c r="F69" t="n">
-        <v>-5.373727587439166</v>
+        <v>-5.158293499848559</v>
       </c>
       <c r="G69" t="n">
-        <v>0.4875120740373555</v>
+        <v>0.2406661173268198</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.8082253165711905</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.005154955880616</v>
+        <v>-7.118897700639392</v>
       </c>
       <c r="F70" t="n">
-        <v>-5.287060162709365</v>
+        <v>-5.071714077242362</v>
       </c>
       <c r="G70" t="n">
-        <v>0.2233443659973401</v>
+        <v>-0.003197545194897867</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.7853759905733869</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.044902581708635</v>
+        <v>-7.166878414031295</v>
       </c>
       <c r="F71" t="n">
-        <v>-5.624533639711903</v>
+        <v>-5.407671962116156</v>
       </c>
       <c r="G71" t="n">
-        <v>0.4347645789502101</v>
+        <v>0.1976770799460366</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.7810117933817563</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.311813022600989</v>
+        <v>-7.426968690344304</v>
       </c>
       <c r="F72" t="n">
-        <v>-5.660389616073857</v>
+        <v>-5.438907826988876</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1458976082185404</v>
+        <v>-0.06392878849571536</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.7956189815717177</v>
       </c>
       <c r="E73" t="n">
-        <v>-7.518950465538442</v>
+        <v>-7.617835518428663</v>
       </c>
       <c r="F73" t="n">
-        <v>-5.782614787746731</v>
+        <v>-5.55495329398197</v>
       </c>
       <c r="G73" t="n">
-        <v>0.2088142375888689</v>
+        <v>-0.006771409214612694</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.8293795727014879</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.467503446277895</v>
+        <v>-7.584756497967117</v>
       </c>
       <c r="F74" t="n">
-        <v>-5.876786838017247</v>
+        <v>-5.64856310846279</v>
       </c>
       <c r="G74" t="n">
-        <v>0.4867053879043145</v>
+        <v>0.2793234946235162</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.8828500142011957</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.045291166816771</v>
+        <v>-8.158119667291434</v>
       </c>
       <c r="F75" t="n">
-        <v>-6.112612973249756</v>
+        <v>-5.891233853308981</v>
       </c>
       <c r="G75" t="n">
-        <v>0.521686232037091</v>
+        <v>0.3157710408163672</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.9569675654346419</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.494116664220163</v>
+        <v>-8.58355126683664</v>
       </c>
       <c r="F76" t="n">
-        <v>-6.1778029908132</v>
+        <v>-5.952097099795204</v>
       </c>
       <c r="G76" t="n">
-        <v>0.6160049525136141</v>
+        <v>0.4023749084568986</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>1.050498707175413</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.08084148931176</v>
+        <v>-9.161280319293112</v>
       </c>
       <c r="F77" t="n">
-        <v>-5.948797020160037</v>
+        <v>-5.73940085605007</v>
       </c>
       <c r="G77" t="n">
-        <v>0.8559525205349329</v>
+        <v>0.6477003840318237</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>1.163437432125323</v>
       </c>
       <c r="E78" t="n">
-        <v>-10.12638005283586</v>
+        <v>-10.16380051139522</v>
       </c>
       <c r="F78" t="n">
-        <v>-6.619632319390037</v>
+        <v>-6.37510375193442</v>
       </c>
       <c r="G78" t="n">
-        <v>1.217685249611103</v>
+        <v>0.9832475923287974</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>1.295124916778195</v>
       </c>
       <c r="E79" t="n">
-        <v>-11.07757056184223</v>
+        <v>-11.12050093114061</v>
       </c>
       <c r="F79" t="n">
-        <v>-6.816141061398817</v>
+        <v>-6.568327081328632</v>
       </c>
       <c r="G79" t="n">
-        <v>1.55232310263083</v>
+        <v>1.328338142029989</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>1.444017430040903</v>
       </c>
       <c r="E80" t="n">
-        <v>-11.91756060966062</v>
+        <v>-11.93292675824333</v>
       </c>
       <c r="F80" t="n">
-        <v>-6.915226563570583</v>
+        <v>-6.669651748645444</v>
       </c>
       <c r="G80" t="n">
-        <v>1.844108810462048</v>
+        <v>1.608761797902497</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>1.608596418679722</v>
       </c>
       <c r="E81" t="n">
-        <v>-13.18019063410321</v>
+        <v>-13.17061306965092</v>
       </c>
       <c r="F81" t="n">
-        <v>-6.612895267927429</v>
+        <v>-6.368616039822023</v>
       </c>
       <c r="G81" t="n">
-        <v>2.072528100291182</v>
+        <v>1.843287457308407</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>1.786543096687487</v>
       </c>
       <c r="E82" t="n">
-        <v>-14.07505489499585</v>
+        <v>-14.05021385110506</v>
       </c>
       <c r="F82" t="n">
-        <v>-6.712298555545543</v>
+        <v>-6.479528049604856</v>
       </c>
       <c r="G82" t="n">
-        <v>2.083895041256759</v>
+        <v>1.842094539632879</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>1.973985625225618</v>
       </c>
       <c r="E83" t="n">
-        <v>-14.98799381427548</v>
+        <v>-14.95641082991521</v>
       </c>
       <c r="F83" t="n">
-        <v>-7.17365457754884</v>
+        <v>-6.919401775434928</v>
       </c>
       <c r="G83" t="n">
-        <v>2.076395304722912</v>
+        <v>1.838452229517028</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>2.170043298621711</v>
       </c>
       <c r="E84" t="n">
-        <v>-16.85547221226532</v>
+        <v>-16.79571877033788</v>
       </c>
       <c r="F84" t="n">
-        <v>-7.045640821745539</v>
+        <v>-6.79040044024451</v>
       </c>
       <c r="G84" t="n">
-        <v>1.869438755039535</v>
+        <v>1.654097558579399</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>2.373030605721345</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.21133559765997</v>
+        <v>-18.12101608480059</v>
       </c>
       <c r="F85" t="n">
-        <v>-6.832582791492252</v>
+        <v>-6.586871084374841</v>
       </c>
       <c r="G85" t="n">
-        <v>2.07828246137354</v>
+        <v>1.852117003710055</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>2.581236753260968</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.89377486375081</v>
+        <v>-19.784515338289</v>
       </c>
       <c r="F86" t="n">
-        <v>-6.510656356326503</v>
+        <v>-6.280970813718839</v>
       </c>
       <c r="G86" t="n">
-        <v>1.836965971429486</v>
+        <v>1.637235373895409</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>2.794007162749152</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.23951311592409</v>
+        <v>-21.11862753213275</v>
       </c>
       <c r="F87" t="n">
-        <v>-6.584847035531938</v>
+        <v>-6.362827455691596</v>
       </c>
       <c r="G87" t="n">
-        <v>1.486081948591</v>
+        <v>1.301702832619036</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>3.008628518445107</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.74082934461633</v>
+        <v>-22.61009241198816</v>
       </c>
       <c r="F88" t="n">
-        <v>-6.552975599766519</v>
+        <v>-6.329709323175114</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9600883668002212</v>
+        <v>0.7736363119166859</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>3.223706826981934</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.61946445627647</v>
+        <v>-24.46231221954636</v>
       </c>
       <c r="F89" t="n">
-        <v>-6.484309498320699</v>
+        <v>-6.255748427292425</v>
       </c>
       <c r="G89" t="n">
-        <v>0.4287168774558363</v>
+        <v>0.285141412795145</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>3.438954341219205</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.094908060629</v>
+        <v>-25.9459253543735</v>
       </c>
       <c r="F90" t="n">
-        <v>-6.193056692237975</v>
+        <v>-5.966891234574489</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01216860338781581</v>
+        <v>-0.1199568071905607</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>3.652734747076409</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.82353866359845</v>
+        <v>-27.66598552830525</v>
       </c>
       <c r="F91" t="n">
-        <v>-5.554449726274677</v>
+        <v>-5.352822194076237</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.289967131980661</v>
+        <v>-0.4096060190209367</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>3.86336264308231</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.49800395948935</v>
+        <v>-29.34978882731196</v>
       </c>
       <c r="F92" t="n">
-        <v>-4.943172308697434</v>
+        <v>-4.782788438428289</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.8311997481756135</v>
+        <v>-0.9227708467929304</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>4.068891681138917</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.40241391535186</v>
+        <v>-31.24600725216895</v>
       </c>
       <c r="F93" t="n">
-        <v>-4.652941305049896</v>
+        <v>-4.487335975446885</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.614848880859677</v>
+        <v>-1.693219660936323</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>4.26318863708565</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.16118035664898</v>
+        <v>-33.01784200882133</v>
       </c>
       <c r="F94" t="n">
-        <v>-4.874794658656762</v>
+        <v>-4.714689461779031</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.80225429208226</v>
+        <v>-1.871585298461981</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>4.445058479803434</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.51623207596595</v>
+        <v>-35.36972076268167</v>
       </c>
       <c r="F95" t="n">
-        <v>-4.176390249704228</v>
+        <v>-4.050112091338682</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.36371272968564</v>
+        <v>-2.421989691539266</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>4.610346049716412</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.41472877802293</v>
+        <v>-37.2783694874978</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.693551931527707</v>
+        <v>-3.599643887628005</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.118536277882373</v>
+        <v>-3.152387761428892</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>4.75579206631602</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.36869859649536</v>
+        <v>-39.24086084493926</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.61838345094889</v>
+        <v>-3.52845016963199</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.814090395831495</v>
+        <v>-3.83197438295067</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>4.877376966155926</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.6165515067449</v>
+        <v>-41.46991552378553</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.486566047803129</v>
+        <v>-3.418511072215673</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.960599264612336</v>
+        <v>-3.974327595894633</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>4.973721717833874</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.39039564521959</v>
+        <v>-43.25926759204206</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.93482206684431</v>
+        <v>-2.902515509467736</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.148048676896722</v>
+        <v>-4.136911519253889</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>5.035607983983224</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.65552875024026</v>
+        <v>-45.522388870737</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.900995028332125</v>
+        <v>-2.88624978362151</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.875029330986374</v>
+        <v>-4.842140981792637</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>5.068587148284443</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.59750461261643</v>
+        <v>-47.47466831508519</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.463981371519198</v>
+        <v>-2.463428913743237</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.189539142735012</v>
+        <v>-5.161349129140381</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>5.057811072938946</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.38027598669231</v>
+        <v>-50.23043525973167</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.933807688857208</v>
+        <v>-1.962286153856988</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.420510494148675</v>
+        <v>-5.38974397393518</v>
       </c>
     </row>
   </sheetData>
